--- a/SubwayData/Excel/3호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/3호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC6A1FE-64F3-9343-BA4D-D911B928335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ABB1C4-2035-DE42-B7F6-8B4578FE62FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{0A939F9A-F654-8749-9880-0885B5EE2DEA}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>독립문</t>
   </si>
   <si>
-    <t>경복궁(정부서울청사)</t>
-  </si>
-  <si>
     <t>안국</t>
   </si>
   <si>
@@ -150,15 +147,6 @@
     <t>고속터미널</t>
   </si>
   <si>
-    <t>교대(법원·검찰청)</t>
-  </si>
-  <si>
-    <t>남부터미널(예술의전당)</t>
-  </si>
-  <si>
-    <t>양재(서초구청)</t>
-  </si>
-  <si>
     <t>매봉</t>
   </si>
   <si>
@@ -187,6 +175,22 @@
   </si>
   <si>
     <t>오금</t>
+  </si>
+  <si>
+    <t>경복궁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남부터미널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -646,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F29CF2-772B-2541-AC4A-4C90690097ED}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -926,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6">
         <v>1.6</v>
@@ -940,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="6">
         <v>1.1000000000000001</v>
@@ -954,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -968,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6">
         <v>0.6</v>
@@ -982,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="6">
         <v>0.7</v>
@@ -996,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="6">
         <v>0.9</v>
@@ -1010,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="6">
         <v>0.7</v>
@@ -1024,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="6">
         <v>0.8</v>
@@ -1038,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="6">
         <v>0.8</v>
@@ -1052,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="6">
         <v>2.1</v>
@@ -1066,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6">
         <v>1.5</v>
@@ -1080,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="6">
         <v>0.9</v>
@@ -1094,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="6">
         <v>1.2</v>
@@ -1108,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D33" s="6">
         <v>1.6</v>
@@ -1122,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D34" s="6">
         <v>0.9</v>
@@ -1136,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D35" s="6">
         <v>1.8</v>
@@ -1150,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D36" s="6">
         <v>1.2</v>
@@ -1164,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D37" s="6">
         <v>0.9</v>
@@ -1178,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D38" s="6">
         <v>0.8</v>
@@ -1192,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D39" s="6">
         <v>0.8</v>
@@ -1206,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D40" s="6">
         <v>0.9</v>
@@ -1220,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D41" s="6">
         <v>1.1000000000000001</v>
@@ -1234,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D42" s="6">
         <v>1.8</v>
@@ -1248,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D43" s="6">
         <v>1.4</v>
@@ -1262,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D44" s="6">
         <v>0.8</v>
@@ -1276,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D45" s="6">
         <v>0.8</v>
